--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1098,7 +1098,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1098,7 +1098,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ServiceRequestExamen LE recurso utilizado para la representación de los datos de la examen.</t>
+    <t>ServiceRequestExamen LE recurso utilizado para la representación de los datos del examen</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,7 +482,7 @@
 </t>
   </si>
   <si>
-    <t>Identificador de la Interconsulta (Se asigna a nivel central)</t>
+    <t>Identifiers assigned to this order</t>
   </si>
   <si>
     <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
@@ -506,7 +506,319 @@
     <t>ClinicalStatement.identifier</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.id</t>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ServiceRequestLE)
+</t>
+  </si>
+  <si>
+    <t>Relación a service request que representa la interconsulta</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>Estado de la solicitud</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>Intención de la solicitud de examenes</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9, RF1-2</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>Que es lo que se está solicitando</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/CodigoExamen</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -525,7 +837,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.identifier.extension</t>
+    <t>ServiceRequest.code.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -542,479 +854,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>Valor del Identificador de la Interconsulta</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ServiceRequestLE)
-</t>
-  </si>
-  <si>
-    <t>Relación a service request que representa la interconsulta</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>Estado de la solicitud</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
-  </si>
-  <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>Intención de la solicitud de examenes</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t>Classification of service</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9, RF1-2</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if service/procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>If missing, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
-</t>
-  </si>
-  <si>
-    <t>Que es lo que se está solicitando</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
-  </si>
-  <si>
-    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
-  </si>
-  <si>
-    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/CodigoExamen</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4  (varies by domain)</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.extension</t>
   </si>
   <si>
     <t>ServiceRequest.code.coding</t>
@@ -2138,7 +1977,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO72"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2166,7 +2005,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -3378,13 +3217,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
@@ -3498,7 +3337,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -3507,7 +3346,7 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>158</v>
@@ -3518,7 +3357,9 @@
       <c r="M12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3567,28 +3408,28 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3599,14 +3440,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3622,19 +3463,19 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3672,19 +3513,19 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3696,16 +3537,16 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3716,46 +3557,42 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3779,13 +3616,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3803,13 +3640,13 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
@@ -3818,13 +3655,13 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3835,21 +3672,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3869,12 +3706,8 @@
       <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3898,13 +3731,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3922,13 +3755,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -3937,13 +3770,13 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3954,14 +3787,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3980,19 +3813,19 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -4005,7 +3838,7 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -4041,7 +3874,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4056,13 +3889,13 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4073,10 +3906,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4093,22 +3926,22 @@
         <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4119,10 +3952,10 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -4134,13 +3967,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -4158,10 +3991,10 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -4173,19 +4006,19 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -4201,30 +4034,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4234,7 +4069,7 @@
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>81</v>
@@ -4249,13 +4084,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -4273,10 +4108,10 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4288,16 +4123,16 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4305,10 +4140,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4319,7 +4154,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4331,18 +4166,20 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4366,13 +4203,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -4390,13 +4227,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4408,13 +4245,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4422,10 +4259,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4436,7 +4273,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -4448,22 +4285,22 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4483,13 +4320,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>232</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4507,13 +4344,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4522,16 +4359,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4539,10 +4376,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4553,34 +4390,38 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="R21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4624,13 +4465,13 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -4639,13 +4480,13 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4656,14 +4497,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4682,15 +4523,17 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4715,13 +4558,11 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4739,13 +4580,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4754,38 +4595,38 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4794,16 +4635,16 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4854,28 +4695,28 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4886,21 +4727,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4909,23 +4750,21 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4961,40 +4800,40 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5005,10 +4844,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5016,33 +4855,35 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5051,7 +4892,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>81</v>
@@ -5066,13 +4907,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -5090,13 +4931,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -5105,27 +4946,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5133,32 +4974,30 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>110</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5168,7 +5007,7 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>81</v>
@@ -5183,13 +5022,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5207,10 +5046,10 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -5219,19 +5058,19 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5239,14 +5078,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5262,23 +5101,21 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5302,31 +5139,31 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5338,19 +5175,19 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5358,10 +5195,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5375,7 +5212,7 @@
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
@@ -5384,22 +5221,24 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q28" t="s" s="2">
-        <v>294</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5419,13 +5258,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>295</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5443,7 +5282,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5458,16 +5297,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5475,10 +5314,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5495,32 +5334,28 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5564,7 +5399,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5579,13 +5414,13 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5596,18 +5431,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5622,18 +5457,18 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5657,11 +5492,13 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5679,7 +5516,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5694,27 +5531,27 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5734,19 +5571,21 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>160</v>
+        <v>305</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5794,7 +5633,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5806,16 +5645,16 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5826,21 +5665,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5849,21 +5688,23 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5899,40 +5740,40 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5943,10 +5784,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5957,10 +5798,10 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
@@ -5969,19 +5810,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6030,13 +5871,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -6048,10 +5889,10 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6062,21 +5903,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6085,18 +5926,20 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6121,13 +5964,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6145,53 +5988,53 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>161</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -6200,21 +6043,21 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6250,40 +6093,40 @@
         <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6294,10 +6137,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6305,7 +6148,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
@@ -6320,20 +6163,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6381,10 +6220,10 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>90</v>
@@ -6396,31 +6235,31 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6439,17 +6278,15 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6498,7 +6335,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6513,41 +6350,41 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
@@ -6556,18 +6393,16 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6603,19 +6438,17 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6630,41 +6463,43 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
@@ -6673,18 +6508,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6747,27 +6580,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6790,20 +6623,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6827,13 +6656,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6851,7 +6680,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6869,28 +6698,28 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6900,7 +6729,7 @@
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
@@ -6909,20 +6738,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>158</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6970,7 +6795,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6985,41 +6810,41 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>387</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
@@ -7028,16 +6853,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>180</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7063,13 +6888,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -7087,46 +6912,46 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>320</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7145,18 +6970,18 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>389</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7180,13 +7005,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7204,7 +7029,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7219,16 +7044,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7236,24 +7061,24 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -7262,15 +7087,17 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7319,13 +7146,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -7334,38 +7161,38 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>402</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7377,13 +7204,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>405</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7410,13 +7237,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7434,13 +7261,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7449,38 +7276,38 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>412</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7492,13 +7319,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7537,23 +7364,25 @@
         <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7562,33 +7391,31 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>420</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7607,15 +7434,17 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>415</v>
+        <v>218</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7640,13 +7469,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7664,13 +7493,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7679,27 +7508,27 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7719,16 +7548,16 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>429</v>
+        <v>259</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>431</v>
+        <v>261</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7755,13 +7584,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7779,7 +7608,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>428</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7791,7 +7620,7 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7800,32 +7629,32 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>434</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>437</v>
+        <v>135</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7834,18 +7663,20 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>415</v>
+        <v>136</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>438</v>
+        <v>137</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7882,46 +7713,46 @@
         <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>436</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>442</v>
+        <v>263</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>444</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -7933,17 +7764,17 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>446</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>81</v>
@@ -7952,18 +7783,20 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>447</v>
+        <v>271</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>449</v>
+        <v>273</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8011,13 +7844,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>276</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -8026,41 +7859,41 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>452</v>
+        <v>277</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>453</v>
+        <v>278</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>454</v>
+        <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>455</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>457</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>81</v>
@@ -8069,18 +7902,20 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>459</v>
+        <v>320</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8104,13 +7939,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8128,7 +7963,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8143,16 +7978,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>465</v>
+        <v>325</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8160,14 +7995,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>468</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8186,16 +8021,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8245,7 +8080,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8260,16 +8095,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8277,10 +8112,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8300,16 +8135,16 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>180</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8336,13 +8171,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>479</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8360,7 +8195,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8375,16 +8210,16 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>462</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8392,14 +8227,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8415,18 +8250,20 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8475,7 +8312,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8490,16 +8327,16 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8507,10 +8344,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8518,13 +8355,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>81</v>
@@ -8533,16 +8370,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>180</v>
+        <v>474</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8568,13 +8405,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>491</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8592,7 +8429,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8607,16 +8444,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8624,21 +8461,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>481</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8647,19 +8484,23 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>159</v>
+        <v>482</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8683,13 +8524,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8707,56 +8548,56 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>161</v>
+        <v>480</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>81</v>
+        <v>478</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>162</v>
+        <v>488</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>81</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>81</v>
@@ -8765,17 +8606,15 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>136</v>
+        <v>491</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>137</v>
+        <v>492</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8812,19 +8651,19 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>168</v>
+        <v>490</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8836,30 +8675,30 @@
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>162</v>
+        <v>495</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8870,7 +8709,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8879,23 +8718,19 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>499</v>
+        <v>260</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8943,28 +8778,28 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8975,46 +8810,44 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>501</v>
+        <v>137</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9050,40 +8883,40 @@
         <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9094,10 +8927,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9108,7 +8941,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -9120,16 +8953,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9179,13 +9012,13 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
@@ -9194,16 +9027,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>507</v>
+        <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>508</v>
+        <v>133</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>495</v>
+        <v>81</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9211,10 +9044,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9225,7 +9058,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9234,16 +9067,16 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>511</v>
+        <v>362</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9294,13 +9127,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -9309,13 +9142,13 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>514</v>
+        <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>515</v>
+        <v>133</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9326,43 +9159,41 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9411,13 +9242,13 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
@@ -9426,13 +9257,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>524</v>
+        <v>133</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9443,10 +9274,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9457,7 +9288,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9469,17 +9300,15 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>527</v>
+        <v>259</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9528,13 +9357,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9546,10 +9375,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>531</v>
+        <v>334</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9560,14 +9389,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>534</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9583,23 +9412,21 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>180</v>
+        <v>522</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9623,13 +9450,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9647,7 +9474,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9662,949 +9489,23 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>531</v>
+        <v>133</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO72">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10614,7 +9515,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,7 +482,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiers assigned to this order</t>
+    <t>Identificador de la Interconsulta (Se asigna a nivel local)</t>
   </si>
   <si>
     <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
@@ -504,6 +504,206 @@
   </si>
   <si>
     <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>Identificador de la Interconsulta</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>ServiceRequest.instantiatesCanonical</t>
@@ -638,9 +838,6 @@
     <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The status of a service order.</t>
   </si>
   <si>
@@ -693,10 +890,6 @@
   </si>
   <si>
     <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Classification of service</t>
@@ -821,39 +1014,7 @@
     <t>ServiceRequest.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ServiceRequest.code.coding</t>
@@ -1977,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2005,7 +2166,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -3223,7 +3384,7 @@
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
@@ -3337,7 +3498,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -3346,7 +3507,7 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>158</v>
@@ -3357,9 +3518,7 @@
       <c r="M12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3408,28 +3567,28 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3440,14 +3599,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3463,19 +3622,19 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3513,19 +3672,19 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3537,16 +3696,16 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3557,42 +3716,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3616,13 +3779,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3640,13 +3803,13 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
@@ -3655,13 +3818,13 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -3672,21 +3835,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3706,8 +3869,12 @@
       <c r="M15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3731,13 +3898,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3755,13 +3922,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -3770,13 +3937,13 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -3787,14 +3954,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3813,19 +3980,19 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3838,7 +4005,7 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -3874,7 +4041,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3889,13 +4056,13 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -3906,10 +4073,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3917,7 +4084,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -3926,22 +4093,22 @@
         <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3952,10 +4119,10 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3967,13 +4134,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3991,10 +4158,10 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -4006,19 +4173,19 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>206</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -4034,32 +4201,30 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>210</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4069,49 +4234,49 @@
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4123,16 +4288,16 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4140,10 +4305,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4154,7 +4319,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -4166,20 +4331,18 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
       </c>
@@ -4203,13 +4366,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -4227,13 +4390,13 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
@@ -4245,13 +4408,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4259,10 +4422,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4273,7 +4436,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>81</v>
@@ -4285,22 +4448,22 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4320,13 +4483,13 @@
         <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4344,13 +4507,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4359,16 +4522,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4376,10 +4539,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4390,38 +4553,34 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>81</v>
       </c>
@@ -4465,13 +4624,13 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -4480,13 +4639,13 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4497,14 +4656,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4523,17 +4682,15 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4558,11 +4715,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4580,13 +4739,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4595,38 +4754,38 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4635,16 +4794,16 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4695,28 +4854,28 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4727,21 +4886,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4750,21 +4909,23 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4800,40 +4961,40 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4844,10 +5005,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4855,35 +5016,33 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4892,7 +5051,7 @@
         <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>81</v>
@@ -4907,13 +5066,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4931,13 +5090,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -4946,27 +5105,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4974,30 +5133,32 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5007,7 +5168,7 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>81</v>
@@ -5022,13 +5183,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5046,10 +5207,10 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -5058,19 +5219,19 @@
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5078,14 +5239,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5101,21 +5262,23 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5139,31 +5302,31 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5175,19 +5338,19 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5195,10 +5358,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5212,7 +5375,7 @@
         <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
@@ -5221,24 +5384,22 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="R28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5258,13 +5419,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5282,7 +5443,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5297,16 +5458,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5314,10 +5475,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5334,28 +5495,32 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="R29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5399,7 +5564,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5414,13 +5579,13 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5431,18 +5596,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5457,18 +5622,18 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5492,13 +5657,11 @@
         <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5516,7 +5679,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5531,27 +5694,27 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5571,21 +5734,19 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>160</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5633,7 +5794,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5645,16 +5806,16 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5665,21 +5826,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5688,23 +5849,21 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>311</v>
+        <v>137</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5740,40 +5899,40 @@
         <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>316</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5784,10 +5943,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5798,10 +5957,10 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
@@ -5810,19 +5969,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5871,13 +6030,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -5889,10 +6048,10 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5903,21 +6062,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5926,20 +6085,18 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5964,13 +6121,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5988,53 +6145,53 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -6043,21 +6200,21 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6093,40 +6250,40 @@
         <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>168</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>340</v>
+        <v>162</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6137,10 +6294,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6148,7 +6305,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
@@ -6163,16 +6320,20 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6220,10 +6381,10 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>90</v>
@@ -6235,31 +6396,31 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6278,15 +6439,17 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>352</v>
+        <v>158</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6335,7 +6498,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6350,41 +6513,41 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>355</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
@@ -6393,16 +6556,18 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>362</v>
+        <v>110</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6438,17 +6603,19 @@
         <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6463,43 +6630,41 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
@@ -6508,16 +6673,18 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>362</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6580,27 +6747,27 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6623,16 +6790,20 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>376</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6656,13 +6827,13 @@
         <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6680,7 +6851,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6698,28 +6869,28 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6729,7 +6900,7 @@
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
@@ -6738,16 +6909,20 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>158</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6795,7 +6970,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6810,41 +6985,41 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
@@ -6853,16 +7028,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6888,13 +7063,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6912,46 +7087,46 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>386</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>400</v>
+        <v>318</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>402</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>404</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6970,18 +7145,18 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>218</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7005,13 +7180,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>408</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7029,7 +7204,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7044,16 +7219,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7061,24 +7236,24 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>81</v>
@@ -7087,17 +7262,15 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7146,13 +7319,13 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
@@ -7161,38 +7334,38 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7204,13 +7377,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>405</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7237,13 +7410,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7261,13 +7434,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7276,38 +7449,38 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>408</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7319,13 +7492,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7364,25 +7537,23 @@
         <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7391,31 +7562,33 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>421</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7434,17 +7607,15 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
@@ -7469,13 +7640,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7493,13 +7664,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7508,27 +7679,27 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7548,16 +7719,16 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>259</v>
+        <v>429</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>261</v>
+        <v>431</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7584,13 +7755,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7608,7 +7779,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>428</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7620,7 +7791,7 @@
         <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>81</v>
@@ -7629,32 +7800,32 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>263</v>
+        <v>434</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>135</v>
+        <v>437</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>81</v>
@@ -7663,20 +7834,18 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>137</v>
+        <v>438</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7713,46 +7882,46 @@
         <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>436</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>440</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>263</v>
+        <v>442</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -7764,17 +7933,17 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>81</v>
@@ -7783,20 +7952,18 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>271</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>273</v>
+        <v>449</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -7844,13 +8011,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>276</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -7859,41 +8026,41 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>277</v>
+        <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>278</v>
+        <v>453</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>81</v>
@@ -7902,20 +8069,18 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>320</v>
+        <v>459</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7939,13 +8104,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>461</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>462</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -7963,7 +8128,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>456</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7978,16 +8143,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>324</v>
+        <v>464</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>325</v>
+        <v>465</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -7995,14 +8160,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8021,16 +8186,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8080,7 +8245,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8095,16 +8260,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8112,10 +8277,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8135,16 +8300,16 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>458</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8171,13 +8336,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>479</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8195,7 +8360,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8210,16 +8375,16 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>461</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8227,14 +8392,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>465</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8250,20 +8415,18 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8312,7 +8475,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8327,16 +8490,16 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>470</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>471</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8344,10 +8507,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8355,13 +8518,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>81</v>
@@ -8370,16 +8533,16 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>474</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8405,13 +8568,13 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>490</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
@@ -8429,7 +8592,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8444,16 +8607,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>492</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8461,21 +8624,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>481</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>81</v>
@@ -8484,23 +8647,19 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>482</v>
+        <v>159</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8524,13 +8683,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>486</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>487</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8548,56 +8707,56 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>480</v>
+        <v>161</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>488</v>
+        <v>162</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>489</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>81</v>
@@ -8606,15 +8765,17 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>491</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>492</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8651,19 +8812,19 @@
         <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>490</v>
+        <v>168</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8675,30 +8836,30 @@
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>495</v>
+        <v>162</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>496</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8709,7 +8870,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8718,19 +8879,23 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>260</v>
+        <v>499</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
       </c>
@@ -8778,28 +8943,28 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8810,44 +8975,46 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>137</v>
+        <v>501</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>265</v>
+        <v>373</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -8883,40 +9050,40 @@
         <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>267</v>
+        <v>81</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>269</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -8927,10 +9094,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8941,7 +9108,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>81</v>
@@ -8953,16 +9120,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9012,13 +9179,13 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>81</v>
@@ -9027,16 +9194,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>133</v>
+        <v>508</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>81</v>
+        <v>495</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9044,10 +9211,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9058,7 +9225,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9067,16 +9234,16 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>511</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9127,13 +9294,13 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -9142,13 +9309,13 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>81</v>
+        <v>514</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>133</v>
+        <v>515</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9159,41 +9326,43 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9242,13 +9411,13 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
@@ -9257,13 +9426,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>81</v>
+        <v>523</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>133</v>
+        <v>524</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9274,10 +9443,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9288,7 +9457,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>81</v>
@@ -9300,15 +9469,17 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>259</v>
+        <v>527</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9357,13 +9528,13 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>81</v>
@@ -9375,10 +9546,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>334</v>
+        <v>531</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9389,14 +9560,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>534</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9412,21 +9583,23 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>522</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9450,13 +9623,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>539</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9474,7 +9647,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9489,23 +9662,949 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>526</v>
+        <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM64" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AM68" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO72" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO64">
+  <autoFilter ref="A1:AO72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9515,7 +10614,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ServiceRequestExamen LE</t>
+    <t>Solicitud de Examen LE</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1402,7 +1402,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,7 +482,7 @@
 </t>
   </si>
   <si>
-    <t>Identificador de la Interconsulta (Se asigna a nivel local)</t>
+    <t>Identificador de la solicitud</t>
   </si>
   <si>
     <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
@@ -636,9 +636,6 @@
   </si>
   <si>
     <t>ServiceRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>Identificador de la Interconsulta</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -4102,13 +4099,13 @@
         <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4122,43 +4119,43 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4176,10 +4173,10 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4190,10 +4187,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4216,13 +4213,13 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4273,7 +4270,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4291,10 +4288,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4305,10 +4302,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4331,16 +4328,16 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4390,7 +4387,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4408,10 +4405,10 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4422,10 +4419,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4448,16 +4445,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4507,7 +4504,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4522,13 +4519,13 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4539,10 +4536,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4568,13 +4565,13 @@
         <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4624,7 +4621,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4639,13 +4636,13 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4656,14 +4653,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4682,13 +4679,13 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4739,7 +4736,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4754,13 +4751,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4771,14 +4768,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4797,13 +4794,13 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4854,7 +4851,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4869,13 +4866,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4886,14 +4883,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4915,16 +4912,16 @@
         <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4973,7 +4970,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4988,13 +4985,13 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5005,10 +5002,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5034,13 +5031,13 @@
         <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5069,11 +5066,11 @@
         <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Z25" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5090,7 +5087,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>90</v>
@@ -5105,27 +5102,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5151,13 +5148,13 @@
         <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5168,7 +5165,7 @@
         <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>81</v>
@@ -5186,11 +5183,11 @@
         <v>174</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
       </c>
@@ -5207,7 +5204,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -5222,16 +5219,16 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>81</v>
@@ -5239,10 +5236,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5268,16 +5265,16 @@
         <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5302,14 +5299,14 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5326,7 +5323,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5344,13 +5341,13 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5358,10 +5355,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5387,10 +5384,10 @@
         <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5398,7 +5395,7 @@
         <v>81</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>81</v>
@@ -5422,11 +5419,11 @@
         <v>174</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5443,7 +5440,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5458,16 +5455,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5475,10 +5472,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5501,26 +5498,26 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="O29" t="s" s="2">
+      <c r="P29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q29" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>307</v>
-      </c>
       <c r="R29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5564,7 +5561,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5579,13 +5576,13 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5596,14 +5593,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5625,13 +5622,13 @@
         <v>180</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5661,7 +5658,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>81</v>
@@ -5679,7 +5676,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5694,27 +5691,27 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5826,10 +5823,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5943,10 +5940,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5969,19 +5966,19 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6030,7 +6027,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6048,10 +6045,10 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6062,10 +6059,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6177,10 +6174,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6294,10 +6291,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6323,16 +6320,16 @@
         <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6381,7 +6378,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6399,10 +6396,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6413,10 +6410,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6442,13 +6439,13 @@
         <v>158</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6498,7 +6495,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6516,10 +6513,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6530,10 +6527,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6559,14 +6556,14 @@
         <v>110</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6615,7 +6612,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6633,10 +6630,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6647,10 +6644,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6676,14 +6673,14 @@
         <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6732,7 +6729,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6750,10 +6747,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6764,10 +6761,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6790,19 +6787,19 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6851,7 +6848,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6869,10 +6866,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6883,10 +6880,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6912,16 +6909,16 @@
         <v>158</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6970,7 +6967,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6988,10 +6985,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7002,14 +6999,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7031,13 +7028,13 @@
         <v>180</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7063,14 +7060,14 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7087,7 +7084,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7096,7 +7093,7 @@
         <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
@@ -7105,24 +7102,24 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7145,17 +7142,17 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7204,7 +7201,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7222,10 +7219,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7236,10 +7233,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7262,13 +7259,13 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7319,7 +7316,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>90</v>
@@ -7334,31 +7331,31 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7377,13 +7374,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7434,7 +7431,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7449,31 +7446,31 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7492,13 +7489,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7537,17 +7534,17 @@
         <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7562,33 +7559,33 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="D47" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7607,13 +7604,13 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7664,7 +7661,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7679,27 +7676,27 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7722,13 +7719,13 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7755,14 +7752,14 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7779,7 +7776,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7800,25 +7797,25 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>435</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7837,13 +7834,13 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7894,7 +7891,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7909,31 +7906,31 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7952,16 +7949,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8011,7 +8008,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8026,31 +8023,31 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>455</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8072,13 +8069,13 @@
         <v>180</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8104,14 +8101,14 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8128,7 +8125,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8143,16 +8140,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8160,14 +8157,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8186,16 +8183,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8245,7 +8242,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8260,16 +8257,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8277,10 +8274,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8306,10 +8303,10 @@
         <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8336,14 +8333,14 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8360,7 +8357,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8381,10 +8378,10 @@
         <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8392,10 +8389,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8418,13 +8415,13 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8475,7 +8472,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8496,10 +8493,10 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8507,10 +8504,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8536,13 +8533,13 @@
         <v>180</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8568,14 +8565,14 @@
         <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8592,7 +8589,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8607,16 +8604,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8624,10 +8621,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8739,10 +8736,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8856,10 +8853,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8882,19 +8879,19 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M58" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8943,7 +8940,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8961,10 +8958,10 @@
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
@@ -8975,10 +8972,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9004,16 +9001,16 @@
         <v>158</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
@@ -9062,7 +9059,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9080,10 +9077,10 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9094,10 +9091,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9120,16 +9117,16 @@
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9179,7 +9176,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9194,16 +9191,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AM60" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9211,10 +9208,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9237,13 +9234,13 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9294,7 +9291,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9309,13 +9306,13 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9326,14 +9323,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9352,16 +9349,16 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9411,7 +9408,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9426,13 +9423,13 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9443,10 +9440,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9469,16 +9466,16 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9528,7 +9525,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9546,10 +9543,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9560,14 +9557,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9589,16 +9586,16 @@
         <v>180</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9623,14 +9620,14 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9647,7 +9644,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9665,24 +9662,24 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>542</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9705,13 +9702,13 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9762,7 +9759,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9777,27 +9774,27 @@
         <v>102</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>549</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9909,10 +9906,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10026,10 +10023,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10052,16 +10049,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10111,7 +10108,7 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10132,7 +10129,7 @@
         <v>133</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10143,10 +10140,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10169,13 +10166,13 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10226,7 +10223,7 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10247,7 +10244,7 @@
         <v>133</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10258,10 +10255,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10284,13 +10281,13 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10341,7 +10338,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>90</v>
@@ -10362,7 +10359,7 @@
         <v>133</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10373,10 +10370,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10402,10 +10399,10 @@
         <v>158</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10456,7 +10453,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10474,10 +10471,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10488,10 +10485,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10514,16 +10511,16 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10573,7 +10570,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10588,13 +10585,13 @@
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ServiceRequestExamen LE recurso utilizado para la representación de los datos del examen</t>
+    <t>ServiceRequestExamen LE recurso utilizado para la representación de la solicitud de examen</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1298,44 +1298,45 @@
 </t>
   </si>
   <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>TQ1/TQ2, OBR-7/OBR-8</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
+  </si>
+  <si>
+    <t>occurrenceDateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>When service should occur</t>
-  </si>
-  <si>
-    <t>The date/time at which the requested service should occur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>TQ1/TQ2, OBR-7/OBR-8</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]:occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
     <t>Fecha y hora en que se emite la solicitud de estudio. El formato corresponde a año, mes, día y hora (hh:mm) y se representa de la siguiente forma: YYYY-MM-DDTHH:MMZ</t>
   </si>
   <si>
@@ -1371,7 +1372,7 @@
 </t>
   </si>
   <si>
-    <t>Date request signed</t>
+    <t>Fecha en que se solicita el examen. El formato corresponde a año, mes, día y hora (hh:mm) YYYY-MM-DDTHH:MMZ</t>
   </si>
   <si>
     <t>When the request transitioned to being actionable.</t>
@@ -7474,7 +7475,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>90</v>
@@ -7541,7 +7542,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>418</v>
+        <v>167</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>412</v>
@@ -7559,37 +7560,37 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>412</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>413</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>90</v>
@@ -7604,7 +7605,7 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>426</v>
@@ -7676,19 +7677,19 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>423</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7819,13 +7820,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
@@ -7834,7 +7835,7 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>437</v>
@@ -10166,7 +10167,7 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>559</v>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ServiceRequestExamenLE.xlsx
+++ b/StructureDefinition-ServiceRequestExamenLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
